--- a/11 - MultipleReg - Nonlinear/11-MultipleReg-Nonlinear.xlsx
+++ b/11 - MultipleReg - Nonlinear/11-MultipleReg-Nonlinear.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Mai\Teaching\Courses\LM7204-BizForecasting\Excel-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\11 - MultipleReg - Nonlinear\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94177BA4-E870-409A-AE54-152CE2F58A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LovelyPharmacyStores" sheetId="5" r:id="rId1"/>
@@ -21,15 +22,15 @@
     <sheet name="LearningCurve" sheetId="12" r:id="rId7"/>
     <sheet name="Gompertz" sheetId="13" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>albright</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
   <si>
     <t>Quarter</t>
   </si>
@@ -1012,17 +1013,95 @@
   <si>
     <t>Forecast. Gompertz</t>
   </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,8 +1175,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1211,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1139,7 +1255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1162,9 +1278,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1176,11 +1289,19 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,6 +1317,907 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Advert!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38755891363616729"/>
+                  <c:y val="-0.28150226013414992"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17897706652468698"/>
+                  <c:y val="0.44868219597550296"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Advert!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>100.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>193.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>211.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>248.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>248.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>272.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>289.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>303.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Advert!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>874.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>928.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>928.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>942.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>953.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>976.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>989.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1005.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>977.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1001.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>984.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>989.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1012.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>992.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1020.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1015.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1018.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>994.38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>995.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>995.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A59E-4A21-AD76-C77B1D1EB019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28815312"/>
+        <c:axId val="28812816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28815312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28812816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28812816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28815312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gompertz!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cumulative Adoption</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gompertz!$A$6:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gompertz!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F7E-4418-88AE-79E193ADA719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1750597487"/>
+        <c:axId val="1750593327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1750597487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750593327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1750593327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750597487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1920,7 +2942,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1928,6 +2949,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1962,7 +2984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2614,7 +3636,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2622,6 +3643,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2656,7 +3678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2671,7 +3693,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2976,7 +3997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3311,7 +4332,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3646,7 +4667,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3967,7 +4988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4086,7 +5106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4202,7 +5221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4523,7 +5542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4641,7 +5659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4757,7 +5774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4772,7 +5789,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4813,11 +5829,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gompertz!$B$5</c:f>
+              <c:f>LearningCurve!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Adoption</c:v>
+                  <c:v>Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4844,98 +5860,202 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0576334208223973E-2"/>
+                  <c:y val="-0.39913130650335377"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Gompertz!$A$6:$A$18</c:f>
+              <c:f>LearningCurve!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Gompertz!$B$6:$B$18</c:f>
+              <c:f>LearningCurve!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>110.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>105.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>103.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>98.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>91.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>93.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>92.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57</c:v>
+                  <c:v>86.19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>82.09</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>82.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>87.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,7 +6063,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F7E-4418-88AE-79E193ADA719}"/>
+              <c16:uniqueId val="{00000000-6116-4919-8FB1-883B0F6DF42C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4955,11 +6075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1750597487"/>
-        <c:axId val="1750593327"/>
+        <c:axId val="1522624688"/>
+        <c:axId val="1522628848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1750597487"/>
+        <c:axId val="1522624688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,12 +6136,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750593327"/>
+        <c:crossAx val="1522628848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1750593327"/>
+        <c:axId val="1522628848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +6161,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5078,7 +6198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1750597487"/>
+        <c:crossAx val="1522624688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5092,6 +6212,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5128,6 +6255,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5447,6 +6614,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5963,7 +7170,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6479,7 +7686,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6995,7 +8202,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7511,7 +8718,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8027,7 +9234,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8543,7 +9750,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9059,7 +10266,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9575,7 +10782,1080 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487A7B5E-D541-47DC-8B90-D48B2684158A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9652,7 +11932,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9669,7 +11949,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9686,20 +11972,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9729,7 +12021,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9744,27 +12042,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>477157</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FAA83B-FC5B-4D26-9D15-71C3F7400B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="0"/>
+          <a:ext cx="6496957" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9794,7 +12142,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9809,10 +12163,46 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53CE8F6-0114-4586-9C9E-67CD8C4508BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9829,7 +12219,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9845,131 +12241,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="optimize"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Cumulative Adoption</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0</v>
-          </cell>
-          <cell r="B6">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>5</v>
-          </cell>
-          <cell r="B7">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>10</v>
-          </cell>
-          <cell r="B8">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>15</v>
-          </cell>
-          <cell r="B9">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>20</v>
-          </cell>
-          <cell r="B10">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>25</v>
-          </cell>
-          <cell r="B11">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>30</v>
-          </cell>
-          <cell r="B12">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>35</v>
-          </cell>
-          <cell r="B13">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>40</v>
-          </cell>
-          <cell r="B14">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>45</v>
-          </cell>
-          <cell r="B15">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>50</v>
-          </cell>
-          <cell r="B16">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>55</v>
-          </cell>
-          <cell r="B17">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>60</v>
-          </cell>
-          <cell r="B18">
-            <v>59</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10048,6 +12319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10083,6 +12371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10258,7 +12563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10562,11 +12867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10747,7 +13052,7 @@
         <v>992.36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>233.41</v>
       </c>
@@ -10757,8 +13062,11 @@
       <c r="C17">
         <v>1020.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>248.35</v>
       </c>
@@ -10769,7 +13077,7 @@
         <v>1015.54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>248.79</v>
       </c>
@@ -10780,7 +13088,7 @@
         <v>1018.03</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>254.75</v>
       </c>
@@ -10791,7 +13099,7 @@
         <v>994.38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>272.89999999999998</v>
       </c>
@@ -10802,7 +13110,7 @@
         <v>995.45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>289.95</v>
       </c>
@@ -10813,7 +13121,7 @@
         <v>1024.9100000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>303.95</v>
       </c>
@@ -10826,11 +13134,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11529,11 +13838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11554,10 +13863,10 @@
         <f>MAX(A2-3,0)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="17">
         <v>6</v>
       </c>
       <c r="X2" s="10" t="s">
@@ -11592,14 +13901,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>255</v>
+      <c r="L4" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>253</v>
@@ -11622,13 +13931,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="18">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="18">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="18">
         <v>3</v>
       </c>
       <c r="X5" s="11">
@@ -11690,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" ref="M8:M21" si="1">$L$5+$M$5*L8+$N$5*MAX(L8-$M$2,0)</f>
+        <f>$L$5+$M$5*L8+$N$5*MAX(L8-$M$2,0)</f>
         <v>4</v>
       </c>
       <c r="X8" s="11">
@@ -11714,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M8:M22" si="1">$L$5+$M$5*L9+$N$5*MAX(L9-$M$2,0)</f>
         <v>5</v>
       </c>
       <c r="X9" s="11">
@@ -11958,7 +14267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11970,7 +14279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13532,11 +15841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13545,10 +15854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C1" t="s">
@@ -13566,7 +15875,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="11">
-        <f t="shared" ref="C2:C24" si="0">LN(A2)</f>
+        <f t="shared" ref="C2:C23" si="0">LN(A2)</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -13927,7 +16236,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="E24">
@@ -13945,7 +16254,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="E26" s="11">
@@ -13963,7 +16272,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="E28" s="11">
@@ -13981,7 +16290,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="E30" s="11">
@@ -13999,7 +16308,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="E32" s="11">
@@ -14017,7 +16326,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="E34" s="11">
@@ -14035,7 +16344,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="E36" s="11">
@@ -14077,10 +16386,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -14110,7 +16419,7 @@
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1.3896945375640344</v>
       </c>
       <c r="C2" s="11"/>
@@ -14130,7 +16439,7 @@
       <c r="A3" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>7.4425343070948516E-2</v>
       </c>
       <c r="C3" s="11"/>
@@ -14150,7 +16459,7 @@
       <c r="A4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <f t="array" ref="B4">SUMSQ(B6:B18-C6:C18)</f>
         <v>0.43123946115434436</v>
       </c>
@@ -14196,7 +16505,7 @@
       <c r="B6" s="11">
         <v>15</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <f>B$1*EXP(-$B$2*EXP(-$B$3*A6))</f>
         <v>14.949083964144911</v>
       </c>
@@ -14219,7 +16528,7 @@
       <c r="B7" s="11">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f t="shared" ref="C7:C18" si="0">B$1*EXP(-$B$2*EXP(-$B$3*A7))</f>
         <v>23.022548874733186</v>
       </c>
@@ -14242,7 +16551,7 @@
       <c r="B8" s="11">
         <v>31</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>31.003998390678728</v>
       </c>
@@ -14265,7 +16574,7 @@
       <c r="B9" s="11">
         <v>38</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>38.064077589741665</v>
       </c>
@@ -14288,7 +16597,7 @@
       <c r="B10" s="11">
         <v>44</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>43.845733429188236</v>
       </c>
@@ -14311,7 +16620,7 @@
       <c r="B11" s="11">
         <v>48</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>48.334431833995986</v>
       </c>
@@ -14334,7 +16643,7 @@
       <c r="B12" s="11">
         <v>52</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>51.693125134224047</v>
       </c>
@@ -14357,7 +16666,7 @@
       <c r="B13" s="11">
         <v>54</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>54.143079931468847</v>
       </c>
@@ -14380,7 +16689,7 @@
       <c r="B14" s="11">
         <v>56</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>55.899024682868017</v>
       </c>
@@ -14403,7 +16712,7 @@
       <c r="B15" s="11">
         <v>57</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <f t="shared" si="0"/>
         <v>57.142382953339478</v>
       </c>
@@ -14426,7 +16735,7 @@
       <c r="B16" s="11">
         <v>58</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>58.015452496566212</v>
       </c>
@@ -14449,7 +16758,7 @@
       <c r="B17" s="11">
         <v>59</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f t="shared" si="0"/>
         <v>58.624984159768879</v>
       </c>
@@ -14472,7 +16781,7 @@
       <c r="B18" s="11">
         <v>59</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>59.048838360130702</v>
       </c>
@@ -14575,6 +16884,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -14706,29 +17030,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F6DFEE-5DF0-4CDE-A6EB-B62A26B1937A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{254036C9-649E-4BC0-9251-F82456F77F5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{254036C9-649E-4BC0-9251-F82456F77F5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97803660-F9B1-49D9-B330-19E3EC06D38B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97803660-F9B1-49D9-B330-19E3EC06D38B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2F6DFEE-5DF0-4CDE-A6EB-B62A26B1937A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>